--- a/report_ca_nhan/CẦN THƠ/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="4">
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1765714.285714286</v>
+        <v>1986428.571428571</v>
       </c>
     </row>
     <row r="5">
@@ -1894,7 +1894,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1765714.285714286</v>
+        <v>1986428.571428571</v>
       </c>
     </row>
     <row r="14">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1765714.285714286</v>
+        <v>1986428.571428571</v>
       </c>
     </row>
     <row r="23">
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11398714.28571429</v>
+        <v>11689428.57142857</v>
       </c>
     </row>
     <row r="32">
@@ -2084,7 +2084,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2165714.285714285</v>
+        <v>2386428.571428571</v>
       </c>
     </row>
     <row r="33">
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6965714.285714285</v>
+        <v>7186428.571428571</v>
       </c>
     </row>
     <row r="34">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20530142.85714286</v>
+        <v>21262285.71428571</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/CẦN THƠ/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="13">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11689428.57142857</v>
+        <v>10689428.57142857</v>
       </c>
     </row>
     <row r="32">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21262285.71428571</v>
+        <v>20262285.71428571</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/CẦN THƠ/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
+++ b/report_ca_nhan/CẦN THƠ/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
@@ -417,14 +417,289 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>575</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Lan Anh</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3250000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>576</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Phương</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>577</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Trương Thị Thuỳ</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4250000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -435,7 +710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,35 +1131,147 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>575</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Lan Anh</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>576</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Phương</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>123730000</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>153730000</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>3000000</v>
       </c>
-      <c r="K8" t="n">
-        <v>126730000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>123730000</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N8" t="n">
-        <v>12373000</v>
+      <c r="K10" t="n">
+        <v>156730000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>153730000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15373000</v>
       </c>
     </row>
   </sheetData>
@@ -1814,7 +2201,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4250000</v>
       </c>
     </row>
     <row r="6">
@@ -1834,7 +2221,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6973000</v>
+        <v>9973000</v>
       </c>
     </row>
     <row r="8">
@@ -2074,7 +2461,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10689428.57142857</v>
+        <v>17939428.57142857</v>
       </c>
     </row>
     <row r="32">
@@ -2104,7 +2491,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20262285.71428571</v>
+        <v>27512285.71428571</v>
       </c>
     </row>
   </sheetData>
